--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LLM VISION Uipath3\LLM VISION Uipath3\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LLM VISION Uipath3\LLM VISION Uipath3 Github\Instagram-Facebook-Outreaching-Automation\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0522855B-494B-4303-B12D-B3687DE4EB19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{862B3FF3-0D96-4C04-8319-D65B511CDEDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>Name</t>
   </si>
@@ -98,6 +98,12 @@
   </si>
   <si>
     <t>MineAPI3</t>
+  </si>
+  <si>
+    <t>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</t>
+  </si>
+  <si>
+    <t>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</t>
   </si>
 </sst>
 </file>
@@ -418,7 +424,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,23 +509,23 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B11">
-        <v>22</v>
+      <c r="B11" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
-      <c r="B12">
-        <v>33</v>
+      <c r="B12" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">

--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LLM VISION Uipath3\LLM VISION Uipath3 Github\Instagram-Facebook-Outreaching-Automation\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mehmoud project 3\Instagram-Facebook-Outreaching-Automation\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{862B3FF3-0D96-4C04-8319-D65B511CDEDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC0EC67D-BF66-4D66-B500-32F987AE8C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Name</t>
   </si>
@@ -76,34 +76,37 @@
     <t>Model</t>
   </si>
   <si>
-    <t>llama-3.2-11b-vision-instruct:free</t>
-  </si>
-  <si>
     <t>MineAPI</t>
   </si>
   <si>
-    <t>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</t>
-  </si>
-  <si>
     <t>OnlineDMPrompt</t>
   </si>
   <si>
     <t>OnlinePostPrompt</t>
   </si>
   <si>
-    <t>Desctibe this image</t>
-  </si>
-  <si>
     <t>MineAPI2</t>
   </si>
   <si>
     <t>MineAPI3</t>
   </si>
   <si>
-    <t>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</t>
-  </si>
-  <si>
-    <t>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</t>
+    <t>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</t>
+  </si>
+  <si>
+    <t>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</t>
+  </si>
+  <si>
+    <t>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</t>
+  </si>
+  <si>
+    <t>write a 100 character message to this person as a video editor</t>
+  </si>
+  <si>
+    <t>Your ENTIRE comment MUST be between 50 and 100 characters. Stick to this range strictly. Write a casual but insightful comment that sounds genuinely human. Structure flexibly, you might start with a compliment, observation, or even a brief personal connection to their work. Optional is Ask a thoughtful question OR share a quick tip that adds value. It should feel like a real peer reacting casually to a post. End with some variation of Just sent you something in DMs you might find interesting,  check it when you get a chance. or similar phrasing that feels natural. . Sound like a real person talking to a peer, not an AI trying to sound professional. Don't start with names or direct addressing. GIVE ME ONLY THE COMMENT ITSELF, NO EXPLANATIONS OR EXTRA TEXT.</t>
+  </si>
+  <si>
+    <t>meta-llama/llama-3.2-11b-vision-instruct:free</t>
   </si>
 </sst>
 </file>
@@ -424,7 +427,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="T23" sqref="T23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,47 +504,47 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
         <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mehmoud project 3\Instagram-Facebook-Outreaching-Automation\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LLM VISION Uipath3\LLM VISION Uipath3 Github\Instagram-Facebook-Outreaching-Automation\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC0EC67D-BF66-4D66-B500-32F987AE8C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{679B283B-942C-466B-B0E2-B5BAD70FB679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -427,7 +427,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T23" sqref="T23"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LLM VISION Uipath3\LLM VISION Uipath3 Github\Instagram-Facebook-Outreaching-Automation\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{679B283B-942C-466B-B0E2-B5BAD70FB679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA4A47C-73C2-41AC-A0FB-B403F5F75D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Name</t>
   </si>
@@ -107,6 +107,12 @@
   </si>
   <si>
     <t>meta-llama/llama-3.2-11b-vision-instruct:free</t>
+  </si>
+  <si>
+    <t>SplitterWord</t>
+  </si>
+  <si>
+    <t>I’m Visuals</t>
   </si>
 </sst>
 </file>
@@ -424,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,6 +553,14 @@
         <v>25</v>
       </c>
     </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LLM VISION Uipath3\LLM VISION Uipath3 Github\Instagram-Facebook-Outreaching-Automation\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UIPATH COMMAND ENTER\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA4A47C-73C2-41AC-A0FB-B403F5F75D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06E661A-7F1A-4246-A00C-3C15F61880BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -112,7 +112,7 @@
     <t>SplitterWord</t>
   </si>
   <si>
-    <t>I’m Visuals</t>
+    <t>I’m Visuals,</t>
   </si>
 </sst>
 </file>
@@ -433,7 +433,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UIPATH COMMAND ENTER\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UPDATED INSTAGRAM BOT\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06E661A-7F1A-4246-A00C-3C15F61880BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{804BAF5D-0553-456F-888E-98E722F2C725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,12 +67,6 @@
     <t>MsgNumber</t>
   </si>
   <si>
-    <t>Write only one casual but insightful comment just to copy and paste no need for options and always start with 'comment: 'between 50 and 100 characters that sounds genuinely human. Structure flexibly - you might start with a compliment, observation, or even a brief personal connection to their work. Optional: Ask a thoughtful question OR share a quick tip that adds value. End with some variation of: 'Just sent you something in DMs you might find interesting - check it when you get a chance!' or similar phrasing that feels natural.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Act as outreacher and Write a casual DM starting with DM based on your understanding of the image and send only the DM message to copy and paste. Make it feel like a real YouTube fan offering editing help. Just one friendly message, no options. Example: Hey, saw your video on YOUTUBE TOPIC — loved how you handled STYLE. Helped someone go 2K→10K subs recently. I’m Visuals, edit for AI/dev creators. Got a proven growth trick for tech channels. 15-min call worth it? Use two paragraphs split </t>
-  </si>
-  <si>
     <t>Model</t>
   </si>
   <si>
@@ -113,6 +107,12 @@
   </si>
   <si>
     <t>I’m Visuals,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analyze the image scrape the full name and description from the user immage and use for personalization. Write a casual message with your understanding of the image and send only the DM message to copy and paste.. Make it feel like a real YouTube fan offering editing help. Just one friendly message, no options. Example: Hey, saw your video on YOUTUBE TOPIC — loved how you handled STYLE. Helped someone go 2K→10K subs recently. I’m Visuals, edit foryoutube creators. Got a proven growth trick to help channels grow. 15 min call worth it? Use two paragraphs split </t>
+  </si>
+  <si>
+    <t>Analyze the Image and Write only one casual but insightful comment on the post just to copy and paste no need for options and always start with 'comment: 'between 50 and 100 characters that sounds genuinely human. Structure flexibly - you might start with a compliment or observation. Optional: Ask a thoughtful question OR share a quick tip that adds value. End with some variation of: 'Just sent you something in DMs you might find interesting - check it when you get a chance!' or similar phrasing that feels natural.</t>
   </si>
 </sst>
 </file>
@@ -433,7 +433,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,7 +486,7 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -494,7 +494,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -507,58 +507,58 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UPDATED INSTAGRAM BOT\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CPYRUS IG BOT\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{804BAF5D-0553-456F-888E-98E722F2C725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C707ACF1-B117-4AB1-9CDE-A3C7D884A250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -112,7 +112,7 @@
     <t xml:space="preserve">Analyze the image scrape the full name and description from the user immage and use for personalization. Write a casual message with your understanding of the image and send only the DM message to copy and paste.. Make it feel like a real YouTube fan offering editing help. Just one friendly message, no options. Example: Hey, saw your video on YOUTUBE TOPIC — loved how you handled STYLE. Helped someone go 2K→10K subs recently. I’m Visuals, edit foryoutube creators. Got a proven growth trick to help channels grow. 15 min call worth it? Use two paragraphs split </t>
   </si>
   <si>
-    <t>Analyze the Image and Write only one casual but insightful comment on the post just to copy and paste no need for options and always start with 'comment: 'between 50 and 100 characters that sounds genuinely human. Structure flexibly - you might start with a compliment or observation. Optional: Ask a thoughtful question OR share a quick tip that adds value. End with some variation of: 'Just sent you something in DMs you might find interesting - check it when you get a chance!' or similar phrasing that feels natural.</t>
+    <t>Analyze the image in detail What do you see in the image to generate personalized comment and always start with 'comment:' Write a casual but insightful 150-200 character comment that sounds genuinely human. Structure flexibly - you might start with a compliment or observation with details you have analyzed from the image then introduce yourself as Vanessa a branding artist who helps creators grow in their streaming journey. Mention designing branding for multiple Regiment GG creators and some mutual friends. End with excitement like i have alot of ideas to share with you how we can revamp your channel sharing ideas and ask if  interested. Use conversational human tone with minor typos peer to peer approach authentic not salesy. if you can make it better to write comment feel free to go for it as you are expert copy writer but make sure it sounds human. Structure in 2 paragraphs. No emojis no options no extra text. Output only the final comment nothing else.</t>
   </si>
 </sst>
 </file>
@@ -433,7 +433,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U15" sqref="U15"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,7 +502,7 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">

--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CPYRUS IG BOT\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IG BOT PC 2\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C707ACF1-B117-4AB1-9CDE-A3C7D884A250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E3D73E-32BB-4D90-B05E-2326ACB4FA62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6090" yWindow="4275" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -148,8 +148,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,7 +436,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,8 +504,8 @@
       <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B8">
-        <v>5</v>
+      <c r="B8" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">

--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IG BOT PC 2\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LLM VISION Uipath3\LLM VISION Uipath3 Github\Instagram-Facebook-Outreaching-Automation\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E3D73E-32BB-4D90-B05E-2326ACB4FA62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5525C287-A623-4177-B1E1-C9B4D5A32305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6090" yWindow="4275" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Name</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>Analyze the image in detail What do you see in the image to generate personalized comment and always start with 'comment:' Write a casual but insightful 150-200 character comment that sounds genuinely human. Structure flexibly - you might start with a compliment or observation with details you have analyzed from the image then introduce yourself as Vanessa a branding artist who helps creators grow in their streaming journey. Mention designing branding for multiple Regiment GG creators and some mutual friends. End with excitement like i have alot of ideas to share with you how we can revamp your channel sharing ideas and ask if  interested. Use conversational human tone with minor typos peer to peer approach authentic not salesy. if you can make it better to write comment feel free to go for it as you are expert copy writer but make sure it sounds human. Structure in 2 paragraphs. No emojis no options no extra text. Output only the final comment nothing else.</t>
+  </si>
+  <si>
+    <t>CommentNumber</t>
   </si>
 </sst>
 </file>
@@ -433,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,7 +505,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B8" s="1">
         <v>2</v>
@@ -510,57 +513,65 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>25</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>26</v>
       </c>
     </row>
